--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3955544.367046714</v>
+        <v>3951239.244049644</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.198658204325</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>158.9209832102732</v>
       </c>
       <c r="U2" t="n">
         <v>187.5255871663199</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.527456720693504</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663199</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>285.5153511708774</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>12.25188473404937</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>204.6862767076191</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425904</v>
+        <v>23.94240680425895</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074792</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>20.73657423615775</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>169.3119230331729</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19.86486348320024</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589152</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>72.89889574101048</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>192.9879055521759</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.6828330058478</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470352</v>
@@ -1262,25 +1262,25 @@
         <v>31.66886087721421</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>181.2878526990832</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>206.7961746899001</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>111.9404544080156</v>
+        <v>31.68046530976926</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.22340015155928</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669594</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695518</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.02919805176402</v>
       </c>
       <c r="H16" t="n">
-        <v>53.11937003877868</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695518</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>30.97191586387883</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>141.1329474887994</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428449</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
-        <v>59.3100580403004</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>73.56194264363164</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.78331078915386</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,10 +2845,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>117.2708639270857</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>86.24032515900413</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>6.600826611594925</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8420267256011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>129.3292263586725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>140.5758943588686</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>4.444394634329537</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>71.22475183604968</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.59746731481</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>28.2321815491218</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330559</v>
@@ -4345,7 +4345,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
         <v>734.4611726020263</v>
@@ -4354,28 +4354,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>511.8624171433432</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487947</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487947</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.26277863231</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>22.60553861036973</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>22.60553861036973</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>22.60553861036973</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>22.60553861036973</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>22.60553861036973</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330559</v>
@@ -4418,10 +4418,10 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476347</v>
@@ -4439,22 +4439,22 @@
         <v>750.1023486652795</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W3" t="n">
-        <v>371.26277863231</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="G4" t="n">
         <v>15.00204697330559</v>
@@ -4515,25 +4515,25 @@
         <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2785428285135</v>
+        <v>646.4212656658908</v>
       </c>
       <c r="C5" t="n">
-        <v>342.2785428285135</v>
+        <v>646.4212656658908</v>
       </c>
       <c r="D5" t="n">
-        <v>342.2785428285135</v>
+        <v>646.4212656658908</v>
       </c>
       <c r="E5" t="n">
-        <v>53.87919821146561</v>
+        <v>260.6330130676466</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226213</v>
+        <v>253.6875123184431</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675771</v>
+        <v>241.3118711729387</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J5" t="n">
         <v>111.6705539017219</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746979</v>
+        <v>277.9807166746982</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030766</v>
+        <v>521.204941603077</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709185</v>
+        <v>823.5081935709192</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582753</v>
@@ -4585,34 +4585,34 @@
         <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332759</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837885</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540654</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540654</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540654</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.080602212018</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="V5" t="n">
-        <v>1119.017714868447</v>
+        <v>1372.655679197085</v>
       </c>
       <c r="W5" t="n">
-        <v>1119.017714868447</v>
+        <v>1019.887023926971</v>
       </c>
       <c r="X5" t="n">
-        <v>1119.017714868447</v>
+        <v>646.4212656658908</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.8783828926353</v>
+        <v>646.4212656658908</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>467.1090108371642</v>
+        <v>548.23848843364</v>
       </c>
       <c r="C6" t="n">
-        <v>467.1090108371642</v>
+        <v>373.785459152513</v>
       </c>
       <c r="D6" t="n">
-        <v>318.1746011759129</v>
+        <v>224.8510494912618</v>
       </c>
       <c r="E6" t="n">
-        <v>318.1746011759129</v>
+        <v>224.8510494912618</v>
       </c>
       <c r="F6" t="n">
-        <v>171.6400432027979</v>
+        <v>78.31649151814673</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675771</v>
+        <v>78.31649151814673</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675771</v>
+        <v>78.31649151814673</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478754</v>
+        <v>61.66788464787551</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806065</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189982</v>
+        <v>399.8722171189986</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223506</v>
+        <v>668.6238185223513</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352487</v>
+        <v>958.8971200352496</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228321</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639509</v>
+        <v>1378.176233639511</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.87866090655</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703775</v>
+        <v>1445.878660906552</v>
       </c>
       <c r="S6" t="n">
-        <v>1380.154236121797</v>
+        <v>1303.087768902147</v>
       </c>
       <c r="T6" t="n">
-        <v>1184.613617841552</v>
+        <v>1303.087768902147</v>
       </c>
       <c r="U6" t="n">
-        <v>956.4984757971085</v>
+        <v>1303.087768902147</v>
       </c>
       <c r="V6" t="n">
-        <v>721.3463675653659</v>
+        <v>1303.087768902147</v>
       </c>
       <c r="W6" t="n">
-        <v>467.1090108371642</v>
+        <v>1132.065624424195</v>
       </c>
       <c r="X6" t="n">
-        <v>467.1090108371642</v>
+        <v>924.2141242186619</v>
       </c>
       <c r="Y6" t="n">
-        <v>467.1090108371642</v>
+        <v>716.4538254537081</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675771</v>
+        <v>349.7535309159022</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675771</v>
+        <v>202.8635834179919</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675771</v>
+        <v>34.55805631675773</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574698</v>
+        <v>64.24066662574708</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584117</v>
+        <v>132.1299861584119</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347974</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195369</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.310156193472</v>
+        <v>342.3101561934726</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858008</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Q7" t="n">
-        <v>332.5350520040922</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="R7" t="n">
-        <v>332.5350520040922</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="S7" t="n">
-        <v>332.5350520040922</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="T7" t="n">
-        <v>108.1933045400006</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="U7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="V7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675771</v>
+        <v>369.8190495858015</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>824.6114411906399</v>
+        <v>1018.254896603644</v>
       </c>
       <c r="C8" t="n">
-        <v>824.6114411906399</v>
+        <v>649.2923796632319</v>
       </c>
       <c r="D8" t="n">
-        <v>466.3457425838893</v>
+        <v>649.2923796632319</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>649.2923796632319</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428179</v>
+        <v>238.3064748736244</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232725</v>
+        <v>366.8168396232726</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.587892771188</v>
       </c>
       <c r="M8" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
         <v>2021.63095817245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561086</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290972</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="X8" t="n">
-        <v>1211.211281254762</v>
+        <v>1794.994068643577</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.211281254762</v>
+        <v>1404.854736667765</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.9915800697038</v>
+        <v>941.5261380428188</v>
       </c>
       <c r="C9" t="n">
-        <v>620.5385507885768</v>
+        <v>767.0731087616919</v>
       </c>
       <c r="D9" t="n">
-        <v>471.6041411273255</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>312.36668612187</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>312.36668612187</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
         <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>80.03532540581921</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562341</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
         <v>246.6448318504524</v>
@@ -4910,25 +4910,25 @@
         <v>1734.238298972667</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474385</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948361</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="U9" t="n">
-        <v>1217.444273817973</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="V9" t="n">
-        <v>1217.444273817973</v>
+        <v>1734.238298972667</v>
       </c>
       <c r="W9" t="n">
-        <v>963.2069170897719</v>
+        <v>1525.353274033374</v>
       </c>
       <c r="X9" t="n">
-        <v>963.2069170897719</v>
+        <v>1317.501773827841</v>
       </c>
       <c r="Y9" t="n">
-        <v>963.2069170897719</v>
+        <v>1109.741475062887</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156.4403626067957</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="C10" t="n">
-        <v>156.4403626067957</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="D10" t="n">
-        <v>156.4403626067957</v>
+        <v>370.1727076282646</v>
       </c>
       <c r="E10" t="n">
-        <v>156.4403626067957</v>
+        <v>222.2596140458714</v>
       </c>
       <c r="F10" t="n">
-        <v>156.4403626067957</v>
+        <v>75.36966654796109</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809314</v>
       </c>
       <c r="K10" t="n">
         <v>92.71685897981547</v>
@@ -4986,28 +4986,28 @@
         <v>520.2893470406003</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="T10" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="U10" t="n">
-        <v>411.1248508126826</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="V10" t="n">
-        <v>156.4403626067957</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="W10" t="n">
-        <v>156.4403626067957</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="X10" t="n">
-        <v>156.4403626067957</v>
+        <v>520.2893470406003</v>
       </c>
       <c r="Y10" t="n">
-        <v>156.4403626067957</v>
+        <v>520.2893470406003</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>577.8620388433916</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>408.9258559154848</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>408.9258559154848</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2412.393992518079</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.539158172984</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2009.937693195925</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1720.862466540123</v>
+        <v>1752.394291958026</v>
       </c>
       <c r="V13" t="n">
-        <v>1466.177978334236</v>
+        <v>1497.709803752139</v>
       </c>
       <c r="W13" t="n">
-        <v>1176.760808297275</v>
+        <v>1208.292633715178</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7712573992578</v>
+        <v>980.3030828171612</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.9786782557277</v>
+        <v>759.5105036736312</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5317,13 +5317,13 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400738</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="F16" t="n">
-        <v>229.5592957321579</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="G16" t="n">
-        <v>229.5592957321579</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="17">
@@ -5503,52 +5503,52 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3324.292621228102</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3951.890584782709</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876714</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888039</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908937</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W19" t="n">
-        <v>1358.188536579448</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>762.547769317911</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5779,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400738</v>
       </c>
       <c r="C22" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270471</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138435</v>
       </c>
       <c r="Y22" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703134</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6256,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3334.979122486493</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3166.042939558587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3015.926300146251</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>2868.013206563858</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>2721.123259065947</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2553.927159780827</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2412.215328623025</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3516.627587316733</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3516.627587316733</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
         <v>402.7245934908939</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1315.245947540652</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1087.256396642634</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>866.4638174991043</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6691,25 +6691,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3112.537432147379</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>2943.601249219472</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>2793.484609807137</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3294.185896977619</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2881.772575583814</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3801.620340492562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3512.203170455601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3284.213619557584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3063.421040414054</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3200.825397924057</v>
+        <v>869.9745311434733</v>
       </c>
       <c r="C40" t="n">
-        <v>3031.88921499615</v>
+        <v>701.0383482155665</v>
       </c>
       <c r="D40" t="n">
-        <v>2881.772575583814</v>
+        <v>550.9217088032309</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>403.0086152208379</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>4436.443326796476</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>4147.368100140674</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V40" t="n">
-        <v>3892.683611934787</v>
+        <v>1789.822296052221</v>
       </c>
       <c r="W40" t="n">
-        <v>3603.266441897827</v>
+        <v>1500.40512601526</v>
       </c>
       <c r="X40" t="n">
-        <v>3603.266441897827</v>
+        <v>1272.415575117243</v>
       </c>
       <c r="Y40" t="n">
-        <v>3382.473862754297</v>
+        <v>1051.622995973713</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.721406539404</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>854.7852236114967</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>704.6685841991609</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>556.7554906167678</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.369871369643</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>32.15184655856241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>63.36835372228464</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405047</v>
       </c>
       <c r="H16" t="n">
-        <v>87.17534280744522</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>136.2749052347489</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>145.3900508477916</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193928</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>226.8744163489437</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>7.482525529411674</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>169.2521344095053</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.74262662649372</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>122.8084169651555</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>4.845153664062508</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>212.9610556929587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>74.19629618688157</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619388.6609627879</v>
+        <v>619388.6609627878</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900059</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.599690006</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253127</v>
+        <v>270592.3620253131</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231936</v>
+        <v>115410.0540231933</v>
       </c>
       <c r="E3" t="n">
         <v>601443.2075742643</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854474</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881986</v>
+        <v>62913.63765881987</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197499</v>
+        <v>27875.25362197497</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515978</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263462</v>
+        <v>206604.422926346</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26453,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26472,10 +26472,10 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936821</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587231</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-105837.4979023055</v>
       </c>
       <c r="C6" t="n">
-        <v>267409.2501932558</v>
+        <v>267409.250193256</v>
       </c>
       <c r="D6" t="n">
-        <v>446229.6438963196</v>
+        <v>446229.64389632</v>
       </c>
       <c r="E6" t="n">
-        <v>89754.16624996737</v>
+        <v>89406.78699561024</v>
       </c>
       <c r="F6" t="n">
-        <v>691197.3738242314</v>
+        <v>690849.9945698746</v>
       </c>
       <c r="G6" t="n">
-        <v>691197.3738242314</v>
+        <v>690849.9945698746</v>
       </c>
       <c r="H6" t="n">
-        <v>691197.3738242318</v>
+        <v>690849.9945698746</v>
       </c>
       <c r="I6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698748</v>
       </c>
       <c r="J6" t="n">
-        <v>642132.429095687</v>
+        <v>641785.04984133</v>
       </c>
       <c r="K6" t="n">
-        <v>628283.7361654117</v>
+        <v>627936.3569110548</v>
       </c>
       <c r="L6" t="n">
-        <v>663322.1202022568</v>
+        <v>662974.7409478998</v>
       </c>
       <c r="M6" t="n">
-        <v>534050.9932726338</v>
+        <v>533703.614018277</v>
       </c>
       <c r="N6" t="n">
-        <v>691197.3738242317</v>
+        <v>690849.9945698748</v>
       </c>
       <c r="O6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698745</v>
       </c>
       <c r="P6" t="n">
-        <v>691197.3738242316</v>
+        <v>690849.9945698747</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950618</v>
+        <v>758.8996292950621</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376849</v>
@@ -26792,10 +26792,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594713</v>
+        <v>431.9757039594716</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261641</v>
+        <v>542.1149567261642</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-1.096265935172726e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821572</v>
+        <v>210.4296883821576</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262312</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
         <v>514.2648358039888</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666927</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734839</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
         <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666926</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734839</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931517</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666927</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734843</v>
+        <v>630.5933313734839</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>237.5351834591556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27399,7 +27399,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>54.52289784593361</v>
       </c>
       <c r="U2" t="n">
         <v>63.64367339871047</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27481,7 +27481,7 @@
         <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>7.851764311964889</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>30.23706061590673</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377105</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>64.16939599459974</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482797</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27587,7 +27587,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>154.5643095410618</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>96.41501890138443</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>103.5439793638544</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760039</v>
+        <v>92.85788772760033</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246131</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937513</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074787</v>
       </c>
       <c r="S6" t="n">
-        <v>120.6264088482029</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>82.38306012774669</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27782,22 +27782,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>126.5690991633689</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304047</v>
+        <v>30.24193919304042</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589146</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
-        <v>213.3454877503039</v>
+        <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>218.8828292914509</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27912,16 +27912,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>99.04826767262119</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>44.53272126898531</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>44.89880847101946</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>54.5110467029162</v>
+        <v>134.7710358011625</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28058,7 +28058,7 @@
         <v>22.59469128425542</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596158</v>
@@ -28070,7 +28070,7 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28566,22 +28566,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-2.444267011014745e-12</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28803,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
     </row>
     <row r="23">
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.096265935172726e-13</v>
       </c>
     </row>
     <row r="41">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085673</v>
+        <v>3.050852781085675</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429366</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428055</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286704</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.079914452027</v>
+        <v>388.0799144520272</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511778</v>
+        <v>481.447450251178</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968101</v>
+        <v>535.7030533968103</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610698</v>
+        <v>544.3712888610701</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191491</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860965</v>
+        <v>438.7164434860967</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634657</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098732</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898986</v>
+        <v>69.52130774898988</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920254</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868538</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31360,46 +31360,46 @@
         <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403515</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062487</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
         <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316631</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.427605172189</v>
+        <v>354.4276051721892</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658086</v>
+        <v>413.6002979658088</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468667</v>
+        <v>424.5470671468669</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374454</v>
+        <v>388.3776244374456</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872491</v>
+        <v>311.7072835872493</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547498</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.348897663216</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947721</v>
+        <v>30.32018801947723</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378882</v>
+        <v>6.579516597378886</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757163</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.16727602377986</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734533</v>
+        <v>41.15475366734535</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635565</v>
+        <v>96.75348224635569</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260801</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162531</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399139</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528489</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275348</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514999</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235543</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054712</v>
+        <v>61.53307486054715</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391201</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830802</v>
+        <v>5.847259438830805</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656353</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>285.886712892598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>650.2626573149953</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33025,10 +33025,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>422.3057151140782</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>324.5433647340733</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33900,7 +33900,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198411</v>
+        <v>77.89141170198423</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070465</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811905</v>
+        <v>245.6810352811908</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695374</v>
+        <v>305.3568201695376</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644789</v>
+        <v>314.9582252644792</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974623</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.483447730827</v>
+        <v>207.4834477308272</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890163</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092697</v>
+        <v>27.38366498092705</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573041</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923149</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437903</v>
+        <v>271.4662640437905</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635334</v>
+        <v>293.2053550635336</v>
       </c>
       <c r="O6" t="n">
-        <v>245.781379993001</v>
+        <v>245.7813799930012</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729188</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872829</v>
+        <v>68.38629016872841</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554472</v>
+        <v>29.98243465554481</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501486</v>
+        <v>68.57507023501495</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230884</v>
+        <v>75.59399159230892</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876157</v>
+        <v>81.73343028761579</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569202</v>
+        <v>54.97578017569211</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235234</v>
+        <v>27.78676100235242</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782678</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>508.128623392977</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>279.7094706696337</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>182.409330812055</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
